--- a/excel_files/case_screen_table.xlsx
+++ b/excel_files/case_screen_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>uplifts</t>
   </si>
@@ -151,33 +151,12 @@
     <t>profileReportStatus</t>
   </si>
   <si>
-    <t>refresh</t>
-  </si>
-  <si>
-    <t>outreach</t>
-  </si>
-  <si>
-    <t>ongoingScreening</t>
-  </si>
-  <si>
     <t>TW0003291</t>
   </si>
   <si>
     <t>TW0001194</t>
   </si>
   <si>
-    <t>TW0000711</t>
-  </si>
-  <si>
-    <t>TW0001915</t>
-  </si>
-  <si>
-    <t>TW0004523</t>
-  </si>
-  <si>
-    <t>TW0000376</t>
-  </si>
-  <si>
     <t>ameet.khatri</t>
   </si>
   <si>
@@ -193,30 +172,6 @@
     <t>8b8f7401-bf27-4c22-950a-50cabe395f79</t>
   </si>
   <si>
-    <t>06747c8d-7a57-44d2-9334-46d5dffda027</t>
-  </si>
-  <si>
-    <t>8c9ff22a-abee-43bd-b514-ef6d302febd2</t>
-  </si>
-  <si>
-    <t>30484542-a513-4f30-b37c-f11d05a82c5b</t>
-  </si>
-  <si>
-    <t>38d7ee3d-37cf-4db0-b358-8167934d3a6f</t>
-  </si>
-  <si>
-    <t>d5940acc-291e-4fd5-9947-280f3d642925</t>
-  </si>
-  <si>
-    <t>3828c60f-3ec2-42ae-9de4-e6208f996440</t>
-  </si>
-  <si>
-    <t>8459ce64-c293-4522-a25a-e747ec2e766d</t>
-  </si>
-  <si>
-    <t>362d2ea3-ab8d-489a-8e19-442ae7afe08f</t>
-  </si>
-  <si>
     <t>ICICI BANK LIMITED</t>
   </si>
   <si>
@@ -229,36 +184,6 @@
     <t>Mitsubishi UFJ Bank, Ltd.</t>
   </si>
   <si>
-    <t>VELES INTERNATIONAL LIMITED</t>
-  </si>
-  <si>
-    <t>SHAWBROOK BANK LIMITED</t>
-  </si>
-  <si>
-    <t>AMERIABANK CJSC</t>
-  </si>
-  <si>
-    <t>GOLDMAN SACHS BANK EUROPE SE</t>
-  </si>
-  <si>
-    <t>AUSTRALIANSUPER PTY LTD</t>
-  </si>
-  <si>
-    <t>[{"type": "END CLIENT", "jurisdiction": "CY", "legalEntityName": "VELES INTERNATIONAL LIMITED", "customerInternalID": "TW0000711"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "END CLIENT", "jurisdiction": "GB", "legalEntityName": "SHAWBROOK BANK LIMITED", "customerInternalID": "TW0001915"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "END CLIENT", "jurisdiction": "AM", "legalEntityName": "AMERIABANK CJSC", "customerInternalID": "TW0004523"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "END CLIENT", "jurisdiction": "DE", "legalEntityName": "GOLDMAN SACHS BANK EUROPE SE", "customerInternalID": "TW0000189"}]</t>
-  </si>
-  <si>
-    <t>[{"type": "END CLIENT", "jurisdiction": "AU", "legalEntityName": "AUSTRALIANSUPER PTY LTD", "customerInternalID": "TW0000376"}]</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
@@ -271,36 +196,18 @@
     <t>JP</t>
   </si>
   <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
     <t>Screening Escalation</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>TW0003921</t>
   </si>
   <si>
     <t>TW0002277</t>
   </si>
   <si>
-    <t>TW0000189</t>
-  </si>
-  <si>
     <t>Icici Bank</t>
   </si>
   <si>
@@ -310,42 +217,12 @@
     <t>Bank of Tokyo-Mitsubishi UFJ</t>
   </si>
   <si>
-    <t>Dmitrii Vitalyevich Bugaenko</t>
-  </si>
-  <si>
-    <t>Nasser Chaudhri</t>
-  </si>
-  <si>
-    <t>Ruben Karlenovich Vardanyan</t>
-  </si>
-  <si>
-    <t>Mr. Ruben Vardanyan</t>
-  </si>
-  <si>
-    <t>John F. W. Rogers</t>
-  </si>
-  <si>
-    <t>John Francis William Rogers</t>
-  </si>
-  <si>
-    <t>Ntmitri Vitalevits Mpougkaenko</t>
-  </si>
-  <si>
-    <t>Misha Zelinsky</t>
-  </si>
-  <si>
     <t>mark.thomas</t>
   </si>
   <si>
     <t>ricardo.mendes</t>
   </si>
   <si>
-    <t>jacqueline.parry</t>
-  </si>
-  <si>
-    <t>joshua.williams</t>
-  </si>
-  <si>
     <t>2024-06-06 14:02:11</t>
   </si>
   <si>
@@ -356,30 +233,6 @@
   </si>
   <si>
     <t>2024-06-17 15:02:27</t>
-  </si>
-  <si>
-    <t>2024-07-02 12:21:29</t>
-  </si>
-  <si>
-    <t>2024-07-01 10:42:54</t>
-  </si>
-  <si>
-    <t>2024-06-19 12:44:18</t>
-  </si>
-  <si>
-    <t>2024-06-19 12:41:29</t>
-  </si>
-  <si>
-    <t>2024-06-18 16:08:32</t>
-  </si>
-  <si>
-    <t>2024-06-18 09:58:47</t>
-  </si>
-  <si>
-    <t>2024-06-12 08:20:14</t>
-  </si>
-  <si>
-    <t>2024-06-10 12:29:07</t>
   </si>
   <si>
     <t>Confirmed - Positive</t>
@@ -404,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -459,12 +309,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV13"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,533 +750,166 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:45">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" t="s">
         <v>67</v>
       </c>
-      <c r="R2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>106</v>
-      </c>
       <c r="AF2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="AG2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AP2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:45">
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" t="s">
         <v>68</v>
       </c>
-      <c r="R3" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>107</v>
-      </c>
       <c r="AF3" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AP3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:45">
       <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
       <c r="R4" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="Z4" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="AC4" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="AG4" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AP4" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:45">
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="S5" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="AE5" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AP5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48">
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>45481.68284722222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48">
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>45475.52605324074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48">
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" t="s">
         <v>78</v>
-      </c>
-      <c r="R8" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>45481.67978009259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48">
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>45481.68050925926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48">
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" t="s">
-        <v>82</v>
-      </c>
-      <c r="S10" t="s">
-        <v>89</v>
-      </c>
-      <c r="V10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>45481.68657407408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48">
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
-      <c r="R11" t="s">
-        <v>82</v>
-      </c>
-      <c r="S11" t="s">
-        <v>89</v>
-      </c>
-      <c r="V11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>45481.68717592592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48">
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" t="s">
-        <v>89</v>
-      </c>
-      <c r="V12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>45481.68331018519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48">
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>45481.68527777777</v>
       </c>
     </row>
   </sheetData>
